--- a/report/603338浙江鼎力/603338.xlsx
+++ b/report/603338浙江鼎力/603338.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayua/GitHub/stock/603338浙江鼎力/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayua/GitHub/stock/report/603338浙江鼎力/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82C6231-55C1-8343-A045-4A301353EFE2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3647F080-02C1-0741-A4FA-74FBCACD7651}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="-12520" windowWidth="51200" windowHeight="28340" xr2:uid="{8FF54A9F-FA3B-4D4B-A38D-39626F8E74F0}"/>
+    <workbookView xWindow="-38400" yWindow="-5840" windowWidth="38400" windowHeight="21140" activeTab="2" xr2:uid="{8FF54A9F-FA3B-4D4B-A38D-39626F8E74F0}"/>
   </bookViews>
   <sheets>
     <sheet name="收入" sheetId="1" r:id="rId1"/>
     <sheet name="比率 记录" sheetId="2" r:id="rId2"/>
+    <sheet name="机构" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>年度财务</t>
   </si>
@@ -139,6 +140,18 @@
   </si>
   <si>
     <t>收入快速增加。关注买入</t>
+  </si>
+  <si>
+    <t>报告期</t>
+  </si>
+  <si>
+    <t>家数</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>市值</t>
   </si>
 </sst>
 </file>
@@ -3749,7 +3762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F576BF4A-84D9-4F42-AC28-2084AB25FD8F}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="H3" sqref="H3:H15"/>
     </sheetView>
   </sheetViews>
@@ -4435,4 +4448,261 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D01B7F-2860-2C41-9E0F-B57F3F8FF247}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="3" max="3" width="16.1640625" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3">
+        <v>51860</v>
+      </c>
+      <c r="D2" s="3">
+        <v>3139086</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3">
+        <v>328567</v>
+      </c>
+      <c r="D3" s="3">
+        <v>45338960</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2742851</v>
+      </c>
+      <c r="D4" s="3">
+        <v>96301500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B5">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2406787</v>
+      </c>
+      <c r="D5" s="3">
+        <v>128450200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1172276</v>
+      </c>
+      <c r="D6" s="3">
+        <v>46398680</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B7">
+        <v>39</v>
+      </c>
+      <c r="C7" s="3">
+        <v>6417010</v>
+      </c>
+      <c r="D7" s="3">
+        <v>295824200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>597642</v>
+      </c>
+      <c r="D8" s="3">
+        <v>27491530</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B9">
+        <v>44</v>
+      </c>
+      <c r="C9" s="3">
+        <v>8938084</v>
+      </c>
+      <c r="D9" s="3">
+        <v>465763600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B10">
+        <v>19</v>
+      </c>
+      <c r="C10" s="3">
+        <v>9504271</v>
+      </c>
+      <c r="D10" s="3">
+        <v>532049100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B11">
+        <v>77</v>
+      </c>
+      <c r="C11" s="3">
+        <v>16269405</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1072642000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B12">
+        <v>17</v>
+      </c>
+      <c r="C12" s="3">
+        <v>7683942</v>
+      </c>
+      <c r="D12" s="3">
+        <v>449356900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B13">
+        <v>121</v>
+      </c>
+      <c r="C13" s="3">
+        <v>20715667</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1606617000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B14">
+        <v>34</v>
+      </c>
+      <c r="C14" s="3">
+        <v>9828987</v>
+      </c>
+      <c r="D14" s="3">
+        <v>642185900</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="C15" s="3">
+        <v>29555427</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1350318000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B16">
+        <v>52</v>
+      </c>
+      <c r="C16" s="3">
+        <v>19369312</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1038484000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B17">
+        <v>66</v>
+      </c>
+      <c r="C17" s="3">
+        <v>17577174</v>
+      </c>
+      <c r="D17" s="3">
+        <v>982397200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/report/603338浙江鼎力/603338.xlsx
+++ b/report/603338浙江鼎力/603338.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayua/GitHub/stock/report/603338浙江鼎力/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3647F080-02C1-0741-A4FA-74FBCACD7651}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1E8304-2A22-494E-ADEF-147D5874E006}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-5840" windowWidth="38400" windowHeight="21140" activeTab="2" xr2:uid="{8FF54A9F-FA3B-4D4B-A38D-39626F8E74F0}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="50080" windowHeight="28340" activeTab="1" xr2:uid="{8FF54A9F-FA3B-4D4B-A38D-39626F8E74F0}"/>
   </bookViews>
   <sheets>
     <sheet name="收入" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1040,6 +1041,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1489,6 +1493,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.34100000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3763,7 +3770,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H15"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3980,10 +3987,33 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="B9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="H9" s="5"/>
+      <c r="A9">
+        <v>2018</v>
+      </c>
+      <c r="B9" s="14">
+        <v>17.079999999999998</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="14">
+        <v>9.99</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0.51</v>
+      </c>
+      <c r="F9" s="14">
+        <v>4.8</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1.94</v>
+      </c>
+      <c r="I9" s="13">
+        <v>0.56999999999999995</v>
+      </c>
     </row>
     <row r="10" spans="1:9">
       <c r="B10" s="14"/>
@@ -4096,6 +4126,10 @@
       <c r="C26" s="5">
         <v>0.17699999999999999</v>
       </c>
+      <c r="D26" s="2">
+        <f>B26/B22-1</f>
+        <v>0.3052631578947369</v>
+      </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="11" t="s">
@@ -4107,6 +4141,10 @@
       <c r="C27" s="5">
         <v>0.34100000000000003</v>
       </c>
+      <c r="D27" s="2">
+        <f t="shared" ref="D27:D38" si="0">B27/B23-1</f>
+        <v>0.47692307692307678</v>
+      </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="11" t="s">
@@ -4118,6 +4156,10 @@
       <c r="C28" s="5">
         <v>0.30399999999999999</v>
       </c>
+      <c r="D28" s="2">
+        <f t="shared" si="0"/>
+        <v>0.43650793650793651</v>
+      </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="11" t="s">
@@ -4129,6 +4171,10 @@
       <c r="C29" s="5">
         <v>0.254</v>
       </c>
+      <c r="D29" s="2">
+        <f t="shared" si="0"/>
+        <v>0.5390625</v>
+      </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="11" t="s">
@@ -4140,6 +4186,10 @@
       <c r="C30" s="5">
         <v>0.41299999999999998</v>
       </c>
+      <c r="D30" s="2">
+        <f t="shared" si="0"/>
+        <v>1.040322580645161</v>
+      </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="11" t="s">
@@ -4151,6 +4201,10 @@
       <c r="C31" s="5">
         <v>0.50700000000000001</v>
       </c>
+      <c r="D31" s="2">
+        <f t="shared" si="0"/>
+        <v>0.5625</v>
+      </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="11" t="s">
@@ -4162,8 +4216,12 @@
       <c r="C32" s="5">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" s="2">
+        <f t="shared" si="0"/>
+        <v>0.72928176795580102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="11" t="s">
         <v>30</v>
       </c>
@@ -4173,8 +4231,12 @@
       <c r="C33" s="5">
         <v>0.315</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" s="2">
+        <f t="shared" si="0"/>
+        <v>0.3857868020304569</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="11" t="s">
         <v>31</v>
       </c>
@@ -4184,8 +4246,12 @@
       <c r="C34" s="5">
         <v>0.39600000000000002</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" s="2">
+        <f t="shared" si="0"/>
+        <v>0.22924901185770752</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="11" t="s">
         <v>32</v>
       </c>
@@ -4195,8 +4261,12 @@
       <c r="C35" s="5">
         <v>0.54600000000000004</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" s="2">
+        <f t="shared" si="0"/>
+        <v>0.58000000000000007</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="11" t="s">
         <v>33</v>
       </c>
@@ -4206,27 +4276,43 @@
       <c r="C36" s="5">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" s="2">
+        <f t="shared" si="0"/>
+        <v>0.72523961661341874</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="5"/>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="B37" s="14">
+        <v>3.82</v>
+      </c>
+      <c r="C37" s="5">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="0"/>
+        <v>0.39926739926739918</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="B38" s="14"/>
       <c r="C38" s="5"/>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="B39" s="14"/>
       <c r="C39" s="5"/>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:4">
       <c r="B40" s="14"/>
       <c r="C40" s="5"/>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:4">
       <c r="C41" s="5"/>
     </row>
   </sheetData>
@@ -4239,8 +4325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F802DA02-89C9-6543-A9F0-11329708A39B}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="Q34" sqref="Q34"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4357,8 +4443,27 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="A6">
+        <v>2018</v>
+      </c>
+      <c r="B6" s="6">
+        <v>33.1</v>
+      </c>
+      <c r="C6" s="6">
+        <v>15.6</v>
+      </c>
+      <c r="D6" s="6">
+        <v>4.8</v>
+      </c>
+      <c r="E6" s="6">
+        <v>112.4</v>
+      </c>
+      <c r="F6" s="6">
+        <v>3</v>
+      </c>
+      <c r="G6" s="6">
+        <v>2.5</v>
+      </c>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11">
@@ -4454,7 +4559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D01B7F-2860-2C41-9E0F-B57F3F8FF247}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
